--- a/public/excel/form_pengisian_data_soal.xlsx
+++ b/public/excel/form_pengisian_data_soal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\laragon\www\e-classroom\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\laragon\www\classroom\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pertanyaan</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Jawaban Benar</t>
-  </si>
-  <si>
-    <t>dadasdasd</t>
-  </si>
-  <si>
-    <t>sdasdas</t>
   </si>
 </sst>
 </file>
@@ -377,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,9 +409,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -426,9 +418,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
